--- a/DevelopmentDocuments/ganttCharts.xlsx
+++ b/DevelopmentDocuments/ganttCharts.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6d8a147596ee6a2/Documents/GitHub/PropertyTycoon/DevelopmentDocuments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent\OneDrive\Documents\GitHub\PropertyTycoon\DevelopmentDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{DD5C7697-C4C7-4BC1-A1F4-95C252628761}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{75FE02E4-7E5A-4C53-BC47-C57B7954283C}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{DD5C7697-C4C7-4BC1-A1F4-95C252628761}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{9B21D3F6-02F7-44D4-A5A0-92D76774FBB1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Sprint1</t>
   </si>
@@ -65,12 +66,33 @@
   <si>
     <t>Testing</t>
   </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Rent feature</t>
+  </si>
+  <si>
+    <t>Basic GUI</t>
+  </si>
+  <si>
+    <t>Text-based game</t>
+  </si>
+  <si>
+    <t>Player tokens</t>
+  </si>
+  <si>
+    <t>Possible player actions</t>
+  </si>
+  <si>
+    <t>Update game objects</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +103,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -107,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -116,6 +146,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -573,7 +609,461 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint2!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Rent feature</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Update game objects</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Basic GUI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Text-based game</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Possible player actions</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Player tokens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint2!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D24-4458-B8EE-2C448556C3FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint2!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Rent feature</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Update game objects</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Basic GUI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Text-based game</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Possible player actions</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Player tokens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint2!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D24-4458-B8EE-2C448556C3FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="658045800"/>
+        <c:axId val="694105048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="658045800"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694105048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694105048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43878"/>
+          <c:min val="43871"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658045800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1118,6 +1608,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1139,6 +2134,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CC8AF0-1A23-4D7C-8808-6A77EB5639D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>568325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB221EC4-BF8D-4A8F-9DCF-3909825422E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1458,7 +2494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F91177E-DECF-4A73-9BA7-D4A513C33052}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1588,4 +2624,114 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56660406-3394-4E0E-884A-71C01CDEF536}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43871</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43871</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43871</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43872</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43873</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43874</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C8">
+    <sortCondition ref="B3:B8"/>
+    <sortCondition ref="C3:C8"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/DevelopmentDocuments/ganttCharts.xlsx
+++ b/DevelopmentDocuments/ganttCharts.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent\OneDrive\Documents\GitHub\PropertyTycoon\DevelopmentDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6d8a147596ee6a2/Documents/GitHub/PropertyTycoon/DevelopmentDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{DD5C7697-C4C7-4BC1-A1F4-95C252628761}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{9B21D3F6-02F7-44D4-A5A0-92D76774FBB1}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{DD5C7697-C4C7-4BC1-A1F4-95C252628761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2AA0CC94-D582-47B1-A1E3-9C18FE855382}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
+    <workbookView xWindow="29925" yWindow="9360" windowWidth="38700" windowHeight="15885" activeTab="2" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Sprint1</t>
   </si>
@@ -87,6 +88,27 @@
   <si>
     <t>Update game objects</t>
   </si>
+  <si>
+    <t>Card parser</t>
+  </si>
+  <si>
+    <t>Card action methods</t>
+  </si>
+  <si>
+    <t>Token images</t>
+  </si>
+  <si>
+    <t>Property structure</t>
+  </si>
+  <si>
+    <t>Dice revision</t>
+  </si>
+  <si>
+    <t>Button methods</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,13 +167,16 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -236,7 +261,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -489,7 +514,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="561756680"/>
@@ -550,7 +575,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88857440"/>
@@ -598,7 +623,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -674,7 +699,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -903,7 +928,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="694105048"/>
@@ -964,7 +989,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658045800"/>
@@ -1012,7 +1037,421 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint3!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint3!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Card parser</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Token images</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Button methods</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Card action methods</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Property structure</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dice revision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint3!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43880</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0AD-45ED-86CC-8FA0ED0DC5CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint3!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint3!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Card parser</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Token images</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Button methods</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Card action methods</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Property structure</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dice revision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint3!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E0AD-45ED-86CC-8FA0ED0DC5CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="786273488"/>
+        <c:axId val="786273816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="786273488"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="786273816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="786273816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43885"/>
+          <c:min val="43878"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="786273488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1103,6 +1542,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -1609,6 +2088,511 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2175,6 +3159,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB221EC4-BF8D-4A8F-9DCF-3909825422E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431EEE51-DE8A-4D7B-9CB6-66515E62568E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,21 +3523,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2520,7 +3545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2531,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2542,7 +3567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2553,7 +3578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2564,7 +3589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2575,7 +3600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2586,7 +3611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2597,7 +3622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2608,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
@@ -2630,25 +3655,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56660406-3394-4E0E-884A-71C01CDEF536}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2656,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2667,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2678,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2689,7 +3714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2700,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2711,7 +3736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2734,4 +3759,111 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B10E793-3DC8-4DC0-8E1A-CB6949B434D3}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43878</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43878</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43878</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43879</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43880</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43881</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C8">
+    <sortCondition ref="B3:B8"/>
+    <sortCondition ref="C3:C8"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DevelopmentDocuments/ganttCharts.xlsx
+++ b/DevelopmentDocuments/ganttCharts.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6d8a147596ee6a2/Documents/GitHub/PropertyTycoon/DevelopmentDocuments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent\OneDrive\Documents\GitHub\PropertyTycoon\DevelopmentDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{DD5C7697-C4C7-4BC1-A1F4-95C252628761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2AA0CC94-D582-47B1-A1E3-9C18FE855382}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="8_{DD5C7697-C4C7-4BC1-A1F4-95C252628761}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{7189D87D-130A-41F3-9223-1F8D3AC7DF49}"/>
   <bookViews>
-    <workbookView xWindow="29925" yWindow="9360" windowWidth="38700" windowHeight="15885" activeTab="2" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint2" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Sprint1</t>
   </si>
@@ -109,6 +110,30 @@
   <si>
     <t>Sprint 3</t>
   </si>
+  <si>
+    <t>GameController class</t>
+  </si>
+  <si>
+    <t>fix old test classes</t>
+  </si>
+  <si>
+    <t>fix Bank class</t>
+  </si>
+  <si>
+    <t>fix Player class</t>
+  </si>
+  <si>
+    <t>fix Dice class</t>
+  </si>
+  <si>
+    <t>fix Board class</t>
+  </si>
+  <si>
+    <t>redesign project</t>
+  </si>
+  <si>
+    <t>created packages</t>
+  </si>
 </sst>
 </file>
 
@@ -159,12 +184,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -261,7 +289,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -514,7 +542,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="561756680"/>
@@ -575,7 +603,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88857440"/>
@@ -623,7 +651,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -699,7 +727,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -928,7 +956,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="694105048"/>
@@ -989,7 +1017,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658045800"/>
@@ -1037,7 +1065,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1113,7 +1141,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1342,7 +1370,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="786273816"/>
@@ -1403,7 +1431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="786273488"/>
@@ -1451,7 +1479,449 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint4!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint4!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>redesign project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fix old test classes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>created packages</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GameController class</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fix Bank class</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fix Player class</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fix Dice class</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fix Board class</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint4!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-014B-42E2-9323-45F1209F7CB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint4!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint4!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>redesign project</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fix old test classes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>created packages</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GameController class</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fix Bank class</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fix Player class</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fix Dice class</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>fix Board class</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint4!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-014B-42E2-9323-45F1209F7CB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="476898000"/>
+        <c:axId val="476898984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="476898000"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476898984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="476898984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43892"/>
+          <c:min val="43885"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476898000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1582,6 +2052,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -2593,6 +3103,511 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3200,6 +4215,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{431EEE51-DE8A-4D7B-9CB6-66515E62568E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47C6EA7-0D0F-4933-BB9E-61CB7BF58A25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3523,21 +4579,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3545,7 +4601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3556,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3567,7 +4623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3578,7 +4634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3589,7 +4645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3600,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3611,7 +4667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3622,7 +4678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3633,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
@@ -3659,21 +4715,21 @@
       <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3681,7 +4737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3692,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3703,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3714,7 +4770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3725,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3736,7 +4792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3765,23 +4821,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B10E793-3DC8-4DC0-8E1A-CB6949B434D3}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3789,7 +4845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3800,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3811,7 +4867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3822,7 +4878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3833,7 +4889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3844,7 +4900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3866,4 +4922,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FE431F-EBD4-41CD-B8EA-BECBDA318E9B}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43885</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43887</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43887</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C10">
+    <sortCondition ref="B3:B10"/>
+    <sortCondition ref="C3:C10"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DevelopmentDocuments/ganttCharts.xlsx
+++ b/DevelopmentDocuments/ganttCharts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent\OneDrive\Documents\GitHub\PropertyTycoon\DevelopmentDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent\Documents\GitHub\PropertyTycoon\DevelopmentDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{DD5C7697-C4C7-4BC1-A1F4-95C252628761}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{7189D87D-130A-41F3-9223-1F8D3AC7DF49}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A09F76-61C3-443C-A0C2-3296B84ACCC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
+    <workbookView xWindow="0" yWindow="2990" windowWidth="14400" windowHeight="7810" activeTab="3" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
     <t>redesign project</t>
   </si>
   <si>
-    <t>created packages</t>
+    <t>create packages</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1604,7 @@
                   <c:v>fix old test classes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>created packages</c:v>
+                  <c:v>create packages</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>GameController class</c:v>
@@ -1699,7 +1699,7 @@
                   <c:v>fix old test classes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>created packages</c:v>
+                  <c:v>create packages</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>GameController class</c:v>
@@ -4929,7 +4929,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DevelopmentDocuments/ganttCharts.xlsx
+++ b/DevelopmentDocuments/ganttCharts.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent\Documents\GitHub\PropertyTycoon\DevelopmentDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent\Desktop\Projects\PropertyTycoon\DevelopmentDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A09F76-61C3-443C-A0C2-3296B84ACCC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E130206-5080-4A7A-8D8D-57F4EFC2E7FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2990" windowWidth="14400" windowHeight="7810" activeTab="3" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
+    <workbookView xWindow="12900" yWindow="5715" windowWidth="38700" windowHeight="15885" activeTab="4" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint2" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint3" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sprint10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
   <si>
     <t>Sprint1</t>
   </si>
@@ -134,6 +140,30 @@
   <si>
     <t>create packages</t>
   </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Houses and hotels</t>
+  </si>
+  <si>
+    <t>Mortgaging properties</t>
+  </si>
+  <si>
+    <t>Auctionning mechanic</t>
+  </si>
+  <si>
+    <t>Log system</t>
+  </si>
+  <si>
+    <t>Start screen in GUI</t>
+  </si>
+  <si>
+    <t>BoardPieces onto GUI</t>
+  </si>
 </sst>
 </file>
 
@@ -184,12 +214,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -207,6 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,7 +323,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -542,7 +576,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="561756680"/>
@@ -603,7 +637,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88857440"/>
@@ -651,7 +685,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -727,7 +761,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -956,7 +990,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="694105048"/>
@@ -1017,7 +1051,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658045800"/>
@@ -1065,7 +1099,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1141,7 +1175,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1370,7 +1404,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="786273816"/>
@@ -1431,7 +1465,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="786273488"/>
@@ -1479,7 +1513,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1559,7 +1593,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1812,7 +1846,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="476898984"/>
@@ -1873,7 +1907,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="476898000"/>
@@ -1921,7 +1955,421 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint5!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint5!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Mortgaging properties</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Auctionning mechanic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BoardPieces onto GUI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Houses and hotels</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Log system</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Start screen in GUI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint5!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43892</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E675-4F56-874F-FCE2797723A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint5!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint5!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Mortgaging properties</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Auctionning mechanic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BoardPieces onto GUI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Houses and hotels</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Log system</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Start screen in GUI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint5!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E675-4F56-874F-FCE2797723A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="703589904"/>
+        <c:axId val="703584984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="703589904"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703584984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="703584984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43899"/>
+          <c:min val="43892"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703589904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2092,6 +2540,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -3608,6 +4096,511 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4256,6 +5249,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47C6EA7-0D0F-4933-BB9E-61CB7BF58A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>410308</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25644</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F0576FE-6F3E-47FB-B2C7-56183533BE56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4579,21 +5613,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4601,7 +5635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4612,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4623,7 +5657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4634,7 +5668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4645,7 +5679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4656,7 +5690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4667,7 +5701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4678,7 +5712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4689,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
@@ -4707,6 +5741,127 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A537330B-5E37-4C7A-A891-88BB87542914}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43885</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43887</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43887</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56660406-3394-4E0E-884A-71C01CDEF536}">
   <dimension ref="A1:C8"/>
@@ -4715,21 +5870,21 @@
       <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4737,7 +5892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4748,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4759,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4770,7 +5925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4781,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4792,7 +5947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4825,19 +5980,19 @@
       <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4845,7 +6000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4856,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -4867,7 +6022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4878,7 +6033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4889,7 +6044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4900,7 +6055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -4928,23 +6083,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FE431F-EBD4-41CD-B8EA-BECBDA318E9B}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4952,7 +6107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4963,7 +6118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -4974,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -4985,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4996,7 +6151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5007,7 +6162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -5018,7 +6173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -5029,7 +6184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -5040,16 +6195,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
   </sheetData>
@@ -5063,4 +6218,609 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE517F3C-8377-454C-B740-68FFFFBCF732}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43892</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43892</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43892</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43892</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43894</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43895</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C8">
+    <sortCondition ref="B3:B8"/>
+    <sortCondition ref="C3:C8"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C34038-D8BF-4A9E-A39F-CFA789D7BADE}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43885</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43887</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43887</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36829F57-7CE4-479E-AFDD-4272F2EF14EF}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43885</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43887</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43887</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97697A3-CF16-4930-B756-0AB20B140FA6}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43885</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43887</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43887</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6F873B-3E4B-4741-9898-256B2E2385F0}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43885</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43887</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43887</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43888</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DevelopmentDocuments/ganttCharts.xlsx
+++ b/DevelopmentDocuments/ganttCharts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent\Desktop\Projects\PropertyTycoon\DevelopmentDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent\Documents\GitHub\PropertyTycoon\DevelopmentDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E130206-5080-4A7A-8D8D-57F4EFC2E7FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE78CCFD-78FF-49D6-BA50-D2ECD32F3922}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="5715" windowWidth="38700" windowHeight="15885" activeTab="4" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="3" activeTab="5" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Sprint1</t>
   </si>
@@ -164,6 +164,45 @@
   <si>
     <t>BoardPieces onto GUI</t>
   </si>
+  <si>
+    <t>unMortgage method</t>
+  </si>
+  <si>
+    <t>Auction data structure</t>
+  </si>
+  <si>
+    <t>GUI Scene builder</t>
+  </si>
+  <si>
+    <t>Trading system</t>
+  </si>
+  <si>
+    <t>Max houses on property</t>
+  </si>
+  <si>
+    <t>houseChecks in buyHouse</t>
+  </si>
+  <si>
+    <t>Show log in GUI</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Sprint 9</t>
+  </si>
+  <si>
+    <t>Double rent</t>
+  </si>
+  <si>
+    <t>No buying  until after 1 loop</t>
+  </si>
 </sst>
 </file>
 
@@ -214,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,6 +270,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,7 +283,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,7 +368,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -576,7 +621,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="561756680"/>
@@ -637,7 +682,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88857440"/>
@@ -685,7 +730,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -761,7 +806,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -990,7 +1035,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="694105048"/>
@@ -1051,7 +1096,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658045800"/>
@@ -1099,7 +1144,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1175,7 +1220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1404,7 +1449,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="786273816"/>
@@ -1465,7 +1510,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="786273488"/>
@@ -1513,7 +1558,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1593,7 +1638,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1846,7 +1891,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="476898984"/>
@@ -1907,7 +1952,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="476898000"/>
@@ -1955,7 +2000,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2031,7 +2076,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2260,7 +2305,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="703584984"/>
@@ -2321,7 +2366,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="703589904"/>
@@ -2369,7 +2414,457 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint6!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint6!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Trading system</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GUI Scene builder</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>unMortgage method</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Auction data structure</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Max houses on property</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Double rent</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Show log in GUI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>houseChecks in buyHouse</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>No buying  until after 1 loop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint6!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E285-4B19-B8F9-72CE3345867D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint6!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint6!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Trading system</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GUI Scene builder</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>unMortgage method</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Auction data structure</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Max houses on property</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Double rent</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Show log in GUI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>houseChecks in buyHouse</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>No buying  until after 1 loop</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint6!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E285-4B19-B8F9-72CE3345867D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="301572192"/>
+        <c:axId val="453665920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="301572192"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453665920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="453665920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43928"/>
+          <c:min val="43916"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301572192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2580,6 +3075,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -4601,6 +5136,511 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5310,6 +6350,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>460374</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311149</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4988F7D5-7C6F-4E91-A458-C75D5291E0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5613,21 +6694,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5635,7 +6716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5646,7 +6727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5657,7 +6738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5668,7 +6749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5679,7 +6760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5690,7 +6771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -5701,7 +6782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5712,7 +6793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5723,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
@@ -5746,19 +6827,19 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -5766,93 +6847,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43885</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43887</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43887</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C7" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5870,21 +6895,21 @@
       <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5892,7 +6917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5903,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -5914,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -5925,7 +6950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5936,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5947,7 +6972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5980,19 +7005,19 @@
       <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6000,7 +7025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -6011,7 +7036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -6022,7 +7047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -6033,7 +7058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6044,7 +7069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -6055,7 +7080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -6087,19 +7112,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -6107,7 +7132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6118,7 +7143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -6129,7 +7154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -6140,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -6151,7 +7176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -6162,7 +7187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -6173,7 +7198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -6184,7 +7209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -6195,16 +7220,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
   </sheetData>
@@ -6224,34 +7249,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE517F3C-8377-454C-B740-68FFFFBCF732}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -6261,11 +7284,9 @@
       <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="9">
-        <v>43899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -6276,7 +7297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -6287,7 +7308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -6298,7 +7319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -6309,7 +7330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -6320,11 +7341,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
     </row>
@@ -6343,22 +7364,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C34038-D8BF-4A9E-A39F-CFA789D7BADE}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -6366,99 +7390,115 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="C3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43917</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43920</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C6" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43923</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43923</v>
+      </c>
+      <c r="C8" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43887</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43887</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C7" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>43888</v>
+        <v>43923</v>
       </c>
       <c r="C9" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4</v>
+        <v>43924</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C11">
+    <sortCondition ref="B3:B11"/>
+    <sortCondition ref="C3:C11"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6467,19 +7507,19 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -6487,93 +7527,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43885</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43887</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43887</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C7" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6588,19 +7572,19 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -6608,93 +7592,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43885</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43887</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43887</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C7" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6709,19 +7637,19 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -6729,93 +7657,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43885</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43887</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43887</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C7" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43888</v>
-      </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DevelopmentDocuments/ganttCharts.xlsx
+++ b/DevelopmentDocuments/ganttCharts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent\Documents\GitHub\PropertyTycoon\DevelopmentDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent\Desktop\Projects\PropertyTycoon\DevelopmentDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE78CCFD-78FF-49D6-BA50-D2ECD32F3922}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456AC1BB-644E-44BE-B204-AFB6CAF4902A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" firstSheet="3" activeTab="5" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
+    <workbookView xWindow="-29595" yWindow="9840" windowWidth="38700" windowHeight="15885" firstSheet="3" activeTab="6" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>Sprint1</t>
   </si>
@@ -203,6 +203,24 @@
   <si>
     <t>No buying  until after 1 loop</t>
   </si>
+  <si>
+    <t>sellProperty unmortgage issue</t>
+  </si>
+  <si>
+    <t>auction check</t>
+  </si>
+  <si>
+    <t>redo auction if check fails</t>
+  </si>
+  <si>
+    <t>create basic AI to play game</t>
+  </si>
+  <si>
+    <t>list of upgradable properties</t>
+  </si>
+  <si>
+    <t>update GUI</t>
+  </si>
 </sst>
 </file>
 
@@ -274,6 +292,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,9 +303,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -368,7 +386,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -621,7 +639,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="561756680"/>
@@ -682,7 +700,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88857440"/>
@@ -730,7 +748,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -806,7 +824,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1035,7 +1053,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="694105048"/>
@@ -1096,7 +1114,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="658045800"/>
@@ -1144,7 +1162,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1220,7 +1238,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1449,7 +1467,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="786273816"/>
@@ -1510,7 +1528,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="786273488"/>
@@ -1558,7 +1576,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1638,7 +1656,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1891,7 +1909,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="476898984"/>
@@ -1952,7 +1970,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="476898000"/>
@@ -2000,7 +2018,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2076,7 +2094,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2305,7 +2323,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="703584984"/>
@@ -2366,7 +2384,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="703589904"/>
@@ -2414,7 +2432,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2490,7 +2508,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2755,7 +2773,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="453665920"/>
@@ -2816,7 +2834,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="301572192"/>
@@ -2864,7 +2882,421 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 7</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint7!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint7!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>auction check</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>update GUI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>redo auction if check fails</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>create basic AI to play game</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sellProperty unmortgage issue</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>list of upgradable properties</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint7!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62D4-4090-B88B-87ED05096230}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint7!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint7!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>auction check</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>update GUI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>redo auction if check fails</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>create basic AI to play game</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sellProperty unmortgage issue</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>list of upgradable properties</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint7!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-62D4-4090-B88B-87ED05096230}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="728754688"/>
+        <c:axId val="728752720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="728754688"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728752720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="728752720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43934"/>
+          <c:min val="43927"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="728754688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3115,6 +3547,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -5641,6 +6113,511 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6391,6 +7368,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552536D3-1674-4BB0-9E5C-CFCC4D937905}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6694,21 +7712,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6716,7 +7734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6727,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6738,7 +7756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6749,7 +7767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6760,7 +7778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6771,7 +7789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6782,7 +7800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6793,7 +7811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6804,7 +7822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
@@ -6830,16 +7848,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -6847,35 +7865,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
     </row>
@@ -6895,21 +7913,21 @@
       <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6917,7 +7935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -6928,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -6939,7 +7957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6950,7 +7968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -6961,7 +7979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6972,7 +7990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -7005,19 +8023,19 @@
       <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7025,7 +8043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -7036,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -7047,7 +8065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -7058,7 +8076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -7069,7 +8087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -7080,7 +8098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -7112,19 +8130,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -7132,7 +8150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7143,7 +8161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -7154,7 +8172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -7165,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -7176,7 +8194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -7187,7 +8205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -7198,7 +8216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -7209,7 +8227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -7220,16 +8238,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
     </row>
   </sheetData>
@@ -7253,19 +8271,19 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -7274,7 +8292,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -7286,7 +8304,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -7297,7 +8315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -7308,7 +8326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -7319,7 +8337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -7330,7 +8348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -7341,11 +8359,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
     </row>
@@ -7366,23 +8384,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C34038-D8BF-4A9E-A39F-CFA789D7BADE}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -7390,7 +8408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -7401,7 +8419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -7412,7 +8430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -7423,7 +8441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -7434,7 +8452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -7445,7 +8463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -7456,8 +8474,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="2">
@@ -7467,7 +8485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -7478,8 +8496,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="2">
@@ -7506,20 +8524,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36829F57-7CE4-479E-AFDD-4272F2EF14EF}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -7527,43 +8548,90 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C8">
+    <sortCondition ref="B3:B8"/>
+    <sortCondition ref="C3:C8"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7575,16 +8643,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -7592,35 +8660,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
     </row>
@@ -7640,16 +8708,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -7657,35 +8725,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
     </row>

--- a/DevelopmentDocuments/ganttCharts.xlsx
+++ b/DevelopmentDocuments/ganttCharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent\Desktop\Projects\PropertyTycoon\DevelopmentDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456AC1BB-644E-44BE-B204-AFB6CAF4902A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7593AC61-5882-47D6-9754-720C058C4FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29595" yWindow="9840" windowWidth="38700" windowHeight="15885" firstSheet="3" activeTab="6" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
+    <workbookView xWindow="-31755" yWindow="3840" windowWidth="38700" windowHeight="15885" firstSheet="3" activeTab="7" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>Sprint1</t>
   </si>
@@ -220,6 +220,24 @@
   </si>
   <si>
     <t>update GUI</t>
+  </si>
+  <si>
+    <t>Fix rolling doubles issue</t>
+  </si>
+  <si>
+    <t>Fix doubles jail issue</t>
+  </si>
+  <si>
+    <t>Fix landing on Go issue</t>
+  </si>
+  <si>
+    <t>Stations/Utilities cannot be bought in first loop</t>
+  </si>
+  <si>
+    <t>Animate tokens as gifs in GUI</t>
+  </si>
+  <si>
+    <t>In auction, if all bids 0, cancel auction</t>
   </si>
 </sst>
 </file>
@@ -3252,6 +3270,420 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="728754688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 8</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint8!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint8!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Stations/Utilities cannot be bought in first loop</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fix rolling doubles issue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Animate tokens as gifs in GUI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>In auction, if all bids 0, cancel auction</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fix doubles jail issue</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fix landing on Go issue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint8!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15AF-4DD6-AB71-2278BE4BB518}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint8!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint8!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Stations/Utilities cannot be bought in first loop</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fix rolling doubles issue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Animate tokens as gifs in GUI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>In auction, if all bids 0, cancel auction</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fix doubles jail issue</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fix landing on Go issue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint8!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15AF-4DD6-AB71-2278BE4BB518}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="456011184"/>
+        <c:axId val="456008232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="456011184"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456008232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="456008232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43941"/>
+          <c:min val="43934"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456011184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3587,6 +4019,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -6618,6 +7090,511 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7409,6 +8386,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B3BD18-6C44-4DD8-86EA-513F308A8B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8524,7 +9542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36829F57-7CE4-479E-AFDD-4272F2EF14EF}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
@@ -8639,11 +9657,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97697A3-CF16-4930-B756-0AB20B140FA6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
@@ -8661,28 +9682,70 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="5"/>
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43939</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -8693,10 +9756,15 @@
       <c r="C10" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C8">
+    <sortCondition ref="B3:B8"/>
+    <sortCondition ref="C3:C8"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DevelopmentDocuments/ganttCharts.xlsx
+++ b/DevelopmentDocuments/ganttCharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agent\Desktop\Projects\PropertyTycoon\DevelopmentDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7593AC61-5882-47D6-9754-720C058C4FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C26BE9-9894-4F67-8A3C-AA05E923018B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31755" yWindow="3840" windowWidth="38700" windowHeight="15885" firstSheet="3" activeTab="7" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
+    <workbookView xWindow="4830" yWindow="9015" windowWidth="38700" windowHeight="15885" firstSheet="3" activeTab="8" xr2:uid="{36599407-A2B4-4F4E-B01D-CD4A00EBB384}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Sprint1</t>
   </si>
@@ -238,6 +238,27 @@
   </si>
   <si>
     <t>In auction, if all bids 0, cancel auction</t>
+  </si>
+  <si>
+    <t>Add £200 when player's loopCount increases</t>
+  </si>
+  <si>
+    <t>Implement getOutOfJailFree cards</t>
+  </si>
+  <si>
+    <t>Method to check if player can afford houses</t>
+  </si>
+  <si>
+    <t>If property owner in jail, no rent</t>
+  </si>
+  <si>
+    <t>If jailed player pays to leave, money to FreeParking</t>
+  </si>
+  <si>
+    <t>Bugs relating to last sprint</t>
+  </si>
+  <si>
+    <t>Writing documentation</t>
   </si>
 </sst>
 </file>
@@ -3684,6 +3705,432 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="456011184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Sprint 9</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint9!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint9!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>If property owner in jail, no rent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Implement getOutOfJailFree cards</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Method to check if player can afford houses</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bugs relating to last sprint</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Writing documentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Add £200 when player's loopCount increases</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>If jailed player pays to leave, money to FreeParking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint9!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08BB-437B-AB88-EDBCED9ACF9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sprint9!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint9!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>If property owner in jail, no rent</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Implement getOutOfJailFree cards</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Method to check if player can afford houses</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bugs relating to last sprint</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Writing documentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Add £200 when player's loopCount increases</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>If jailed player pays to leave, money to FreeParking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint9!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08BB-437B-AB88-EDBCED9ACF9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="445778432"/>
+        <c:axId val="699833376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="445778432"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699833376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="699833376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43959"/>
+          <c:min val="43952"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445778432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4059,6 +4506,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -7595,6 +8082,511 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8427,6 +9419,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F5C5E5E-41F6-4E1D-9C2B-959F69CF51EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9657,7 +10690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97697A3-CF16-4930-B756-0AB20B140FA6}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -9772,11 +10805,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6F873B-3E4B-4741-9898-256B2E2385F0}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
@@ -9794,41 +10830,95 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="5"/>
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43954</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C9">
+    <sortCondition ref="B3:B9"/>
+    <sortCondition ref="C3:C9"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>